--- a/backend/uploads/1. BOMLIST_VISS_HW_BO1_CongTac12Muc.xlsx
+++ b/backend/uploads/1. BOMLIST_VISS_HW_BO1_CongTac12Muc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Desktop/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6682AB46-0376-7E43-A735-BEC70448D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852FE05-2FE3-8B4E-92D7-4BF5A36CCA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -124,13 +124,97 @@
   </si>
   <si>
     <t>Manufacturer_1</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>GCM155R71H104KE02D</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>C54, C55, C56, C57, C99</t>
+  </si>
+  <si>
+    <t>CAP CER 0.22UF 35V X5R 0402</t>
+  </si>
+  <si>
+    <t>GRT155R6YA224KE01D</t>
+  </si>
+  <si>
+    <t>C82, C83, C84, C85, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X5R 0402</t>
+  </si>
+  <si>
+    <t>GRM155R61E105MA12D</t>
+  </si>
+  <si>
+    <t>C3, C13, C25, C34, C44, C48, C49, C51, C52, C69, C71, C77, C80, C98, C103, C114</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 10V X5R 0402</t>
+  </si>
+  <si>
+    <t>GRM155R61A225ME95D</t>
+  </si>
+  <si>
+    <t>C31, C50</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0402</t>
+  </si>
+  <si>
+    <t>CL05A106MP8NUB8</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>C18, C35, C53, C68, C70, C76, C79, C100, C104</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 25V X5R 0805</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106MA73L</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>C4, C5, C11, C24</t>
+  </si>
+  <si>
+    <t>CAP CER 12PF 50V C0G/NP0 0402</t>
+  </si>
+  <si>
+    <t>C0402C120J5GACTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 25V X5R 0805</t>
+  </si>
+  <si>
+    <t>GRM21BR61E226ME44L</t>
+  </si>
+  <si>
+    <t>C6, C7, C15, C23, C41, C42, C43, C46, C47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +234,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,21 +279,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,8 +641,8 @@
     <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -514,7 +654,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -530,8 +670,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -555,12 +695,12 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -584,12 +724,12 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -613,12 +753,12 @@
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -642,8 +782,160 @@
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10">
+        <v>9</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
